--- a/Code/Results/Cases/Case_7_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_46/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.311124741278547</v>
+        <v>0.989464478743713</v>
       </c>
       <c r="C2">
-        <v>0.5092053404567878</v>
+        <v>0.1174836072830914</v>
       </c>
       <c r="D2">
-        <v>0.02992363017789756</v>
+        <v>0.04600953004044328</v>
       </c>
       <c r="E2">
-        <v>0.05464804776283216</v>
+        <v>0.05155685387556375</v>
       </c>
       <c r="F2">
-        <v>6.805775220053278</v>
+        <v>7.142435250819716</v>
       </c>
       <c r="G2">
-        <v>0.0008169370199952411</v>
+        <v>0.0008545798084741896</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2871604676488602</v>
+        <v>0.2834189590930123</v>
       </c>
       <c r="K2">
-        <v>0.6304640175738427</v>
+        <v>1.014439103418084</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.998249442567158</v>
+        <v>0.8643095565141721</v>
       </c>
       <c r="C3">
-        <v>0.4362689458654359</v>
+        <v>0.1008638454370754</v>
       </c>
       <c r="D3">
-        <v>0.02527636237775965</v>
+        <v>0.03957688441197149</v>
       </c>
       <c r="E3">
-        <v>0.04886119828508839</v>
+        <v>0.04576424379231625</v>
       </c>
       <c r="F3">
-        <v>6.083665885563704</v>
+        <v>6.456331548549883</v>
       </c>
       <c r="G3">
-        <v>0.0008282653476737062</v>
+        <v>0.0008635947620551283</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2547593344345103</v>
+        <v>0.2532838546753595</v>
       </c>
       <c r="K3">
-        <v>0.5438123442168816</v>
+        <v>0.8832893299348257</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.811753226671641</v>
+        <v>0.7896802145559434</v>
       </c>
       <c r="C4">
-        <v>0.3929162016476937</v>
+        <v>0.09105410156281835</v>
       </c>
       <c r="D4">
-        <v>0.02254243769514375</v>
+        <v>0.03575395605854936</v>
       </c>
       <c r="E4">
-        <v>0.04547726614441316</v>
+        <v>0.04237393590380734</v>
       </c>
       <c r="F4">
-        <v>5.652510396791399</v>
+        <v>6.042743797871452</v>
       </c>
       <c r="G4">
-        <v>0.0008353598994344257</v>
+        <v>0.0008692641283727946</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2354854477127475</v>
+        <v>0.2352328685506677</v>
       </c>
       <c r="K4">
-        <v>0.4921969599023654</v>
+        <v>0.8052384548338409</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.736979461649241</v>
+        <v>0.7597651312285905</v>
       </c>
       <c r="C5">
-        <v>0.3755590807970464</v>
+        <v>0.08714426440825207</v>
       </c>
       <c r="D5">
-        <v>0.02145354688126133</v>
+        <v>0.03422262463853798</v>
       </c>
       <c r="E5">
-        <v>0.0441364418974004</v>
+        <v>0.04103034314985976</v>
       </c>
       <c r="F5">
-        <v>5.479459339301656</v>
+        <v>5.875872473577942</v>
       </c>
       <c r="G5">
-        <v>0.0008382893266951141</v>
+        <v>0.000871610120729832</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.227767366830534</v>
+        <v>0.2279777482088718</v>
       </c>
       <c r="K5">
-        <v>0.4715094513635805</v>
+        <v>0.7739863177758934</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.724632270324463</v>
+        <v>0.7548261083759087</v>
       </c>
       <c r="C6">
-        <v>0.372694275010474</v>
+        <v>0.08650001876041813</v>
       </c>
       <c r="D6">
-        <v>0.0212741281730402</v>
+        <v>0.03396980441583253</v>
       </c>
       <c r="E6">
-        <v>0.04391598438662214</v>
+        <v>0.04080942882070104</v>
       </c>
       <c r="F6">
-        <v>5.450872708144914</v>
+        <v>5.848257161623394</v>
       </c>
       <c r="G6">
-        <v>0.000838778164644913</v>
+        <v>0.0008720018800108195</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2264934703109702</v>
+        <v>0.2267787739616693</v>
       </c>
       <c r="K6">
-        <v>0.468093764832858</v>
+        <v>0.7688285180600758</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.810740072541392</v>
+        <v>0.7892748328644075</v>
       </c>
       <c r="C7">
-        <v>0.392680926624621</v>
+        <v>0.09100103149135919</v>
       </c>
       <c r="D7">
-        <v>0.02252765649179622</v>
+        <v>0.03573320321831375</v>
       </c>
       <c r="E7">
-        <v>0.04545903427842291</v>
+        <v>0.04235566677719405</v>
       </c>
       <c r="F7">
-        <v>5.650166376238303</v>
+        <v>6.040486886104503</v>
       </c>
       <c r="G7">
-        <v>0.0008353992471983502</v>
+        <v>0.0008692956202106198</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2353808322619528</v>
+        <v>0.2351346315180791</v>
       </c>
       <c r="K7">
-        <v>0.4919166255504166</v>
+        <v>0.8048148193160785</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.20196223712918</v>
+        <v>0.9458129923123977</v>
       </c>
       <c r="C8">
-        <v>0.4837278259616653</v>
+        <v>0.1116638329165625</v>
       </c>
       <c r="D8">
-        <v>0.02829335001084132</v>
+        <v>0.04376188888712207</v>
       </c>
       <c r="E8">
-        <v>0.05261481088971109</v>
+        <v>0.04952259622469768</v>
       </c>
       <c r="F8">
-        <v>6.553984332770341</v>
+        <v>6.904106541440115</v>
       </c>
       <c r="G8">
-        <v>0.0008208163649764031</v>
+        <v>0.0008576615464542433</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2758471030174263</v>
+        <v>0.2729264205069484</v>
       </c>
       <c r="K8">
-        <v>0.6002225853849907</v>
+        <v>0.9686617160065509</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.02333295545651</v>
+        <v>1.273416325048942</v>
       </c>
       <c r="C9">
-        <v>0.6762494597072077</v>
+        <v>0.1559049750779593</v>
       </c>
       <c r="D9">
-        <v>0.04080062514921678</v>
+        <v>0.06077994686611987</v>
       </c>
       <c r="E9">
-        <v>0.06821939540726873</v>
+        <v>0.06509203441333611</v>
       </c>
       <c r="F9">
-        <v>8.445341381871572</v>
+        <v>8.671843133096701</v>
       </c>
       <c r="G9">
-        <v>0.0007931457072261061</v>
+        <v>0.0008358140971655682</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3611549751636574</v>
+        <v>0.3512726359301865</v>
       </c>
       <c r="K9">
-        <v>0.8280018501337594</v>
+        <v>1.313062093034461</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.675736771357549</v>
+        <v>1.531507317225248</v>
       </c>
       <c r="C10">
-        <v>0.8305739215557821</v>
+        <v>0.1916165644711327</v>
       </c>
       <c r="D10">
-        <v>0.05113859673636512</v>
+        <v>0.07448334857946293</v>
       </c>
       <c r="E10">
-        <v>0.08102162887984576</v>
+        <v>0.07776402985538056</v>
       </c>
       <c r="F10">
-        <v>9.943416907103028</v>
+        <v>10.03664223405377</v>
       </c>
       <c r="G10">
-        <v>0.0007730938645061619</v>
+        <v>0.0008201994523275735</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4291497059710139</v>
+        <v>0.4124421721868998</v>
       </c>
       <c r="K10">
-        <v>1.009322370499774</v>
+        <v>1.585650571450543</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.987583523615001</v>
+        <v>1.653962998937175</v>
       </c>
       <c r="C11">
-        <v>0.9048006867582501</v>
+        <v>0.2088087067988056</v>
       </c>
       <c r="D11">
-        <v>0.05620790616112714</v>
+        <v>0.08108933741864632</v>
       </c>
       <c r="E11">
-        <v>0.08724213657676572</v>
+        <v>0.08387820962819603</v>
       </c>
       <c r="F11">
-        <v>10.65841545846627</v>
+        <v>10.67728396665007</v>
       </c>
       <c r="G11">
-        <v>0.0007639531247521957</v>
+        <v>0.0008131511989684631</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.46170533667906</v>
+        <v>0.441321504511734</v>
       </c>
       <c r="K11">
-        <v>1.096122651409175</v>
+        <v>1.715345749000164</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.108295827908648</v>
+        <v>1.701183506315402</v>
       </c>
       <c r="C12">
-        <v>0.9336148767122552</v>
+        <v>0.2154797851463996</v>
       </c>
       <c r="D12">
-        <v>0.05819242354449727</v>
+        <v>0.08365532590859459</v>
       </c>
       <c r="E12">
-        <v>0.08966574700696128</v>
+        <v>0.08625179103493963</v>
       </c>
       <c r="F12">
-        <v>10.93500757573548</v>
+        <v>10.92324972779829</v>
       </c>
       <c r="G12">
-        <v>0.0007604809214847133</v>
+        <v>0.0008104862817613793</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4743152068540155</v>
+        <v>0.4524349137578838</v>
       </c>
       <c r="K12">
-        <v>1.129745068987702</v>
+        <v>1.765417973689068</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.082173379148742</v>
+        <v>1.690973799311081</v>
       </c>
       <c r="C13">
-        <v>0.9273755052191461</v>
+        <v>0.2140354639106903</v>
       </c>
       <c r="D13">
-        <v>0.05776191576037348</v>
+        <v>0.08309963677940146</v>
       </c>
       <c r="E13">
-        <v>0.08914055399153398</v>
+        <v>0.08573786565697716</v>
       </c>
       <c r="F13">
-        <v>10.87516053410667</v>
+        <v>10.87011764565466</v>
       </c>
       <c r="G13">
-        <v>0.0007612293484845519</v>
+        <v>0.0008110601030361628</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4715860451067471</v>
+        <v>0.4500330959034926</v>
       </c>
       <c r="K13">
-        <v>1.122467994223442</v>
+        <v>1.754588882232468</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.997459096512785</v>
+        <v>1.657830068819351</v>
       </c>
       <c r="C14">
-        <v>0.907156271416909</v>
+        <v>0.2093541630625708</v>
       </c>
       <c r="D14">
-        <v>0.05636979465041492</v>
+        <v>0.08129908292787746</v>
       </c>
       <c r="E14">
-        <v>0.08744009395812569</v>
+        <v>0.08407226756977337</v>
       </c>
       <c r="F14">
-        <v>10.68104732581742</v>
+        <v>10.6974489428228</v>
       </c>
       <c r="G14">
-        <v>0.0007636677326985152</v>
+        <v>0.0008129318960425864</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4627368017571882</v>
+        <v>0.442232092874093</v>
       </c>
       <c r="K14">
-        <v>1.098872843315533</v>
+        <v>1.719445110113867</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.945925787151282</v>
+        <v>1.637643132144092</v>
       </c>
       <c r="C15">
-        <v>0.8948675948099094</v>
+        <v>0.2065084673412372</v>
       </c>
       <c r="D15">
-        <v>0.0555259331925626</v>
+        <v>0.08020493589932443</v>
       </c>
       <c r="E15">
-        <v>0.086407737674282</v>
+        <v>0.08305988756349691</v>
       </c>
       <c r="F15">
-        <v>10.56294117930207</v>
+        <v>10.59213986432599</v>
       </c>
       <c r="G15">
-        <v>0.0007651596409325751</v>
+        <v>0.0008140788358429046</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4573546676637221</v>
+        <v>0.4374776964342146</v>
       </c>
       <c r="K15">
-        <v>1.084522575833731</v>
+        <v>1.698048023014422</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.655697031536874</v>
+        <v>1.5236162745135</v>
       </c>
       <c r="C16">
-        <v>0.8258143231216764</v>
+        <v>0.1905140902751157</v>
       </c>
       <c r="D16">
-        <v>0.05081566699813322</v>
+        <v>0.0740600192337908</v>
       </c>
       <c r="E16">
-        <v>0.08062397808904009</v>
+        <v>0.07737214627449518</v>
       </c>
       <c r="F16">
-        <v>9.897447220810477</v>
+        <v>9.995216050329617</v>
       </c>
       <c r="G16">
-        <v>0.0007736901946290567</v>
+        <v>0.0008206608649252571</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4270587180620566</v>
+        <v>0.410578169207966</v>
       </c>
       <c r="K16">
-        <v>1.003747360499304</v>
+        <v>1.577300820337342</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.481807636389306</v>
+        <v>1.455039816305572</v>
       </c>
       <c r="C17">
-        <v>0.7845659675836032</v>
+        <v>0.1809609261679981</v>
       </c>
       <c r="D17">
-        <v>0.04802787409862219</v>
+        <v>0.07039293020513782</v>
       </c>
       <c r="E17">
-        <v>0.07718460385283521</v>
+        <v>0.07397777825237029</v>
       </c>
       <c r="F17">
-        <v>9.498438836273834</v>
+        <v>9.634440688747105</v>
       </c>
       <c r="G17">
-        <v>0.0007789132552577928</v>
+        <v>0.0008247102550285405</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.408920686917611</v>
+        <v>0.3943632559500969</v>
       </c>
       <c r="K17">
-        <v>0.9553863115134362</v>
+        <v>1.504778379290087</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.383177131119226</v>
+        <v>1.416063327350059</v>
       </c>
       <c r="C18">
-        <v>0.7612107841966917</v>
+        <v>0.1755536329250873</v>
       </c>
       <c r="D18">
-        <v>0.04645805268162206</v>
+        <v>0.06831801476000265</v>
       </c>
       <c r="E18">
-        <v>0.07524293632384271</v>
+        <v>0.07205779303264848</v>
       </c>
       <c r="F18">
-        <v>9.272023537897127</v>
+        <v>9.428759475536083</v>
       </c>
       <c r="G18">
-        <v>0.0007819161896152997</v>
+        <v>0.0008270447827941307</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3986377131395074</v>
+        <v>0.3851342221067995</v>
       </c>
       <c r="K18">
-        <v>0.9279673573585114</v>
+        <v>1.463591724246157</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.350008080196972</v>
+        <v>1.402943273770916</v>
       </c>
       <c r="C19">
-        <v>0.7533631475946549</v>
+        <v>0.1737371423874521</v>
       </c>
       <c r="D19">
-        <v>0.04593198360808515</v>
+        <v>0.06762106742813501</v>
       </c>
       <c r="E19">
-        <v>0.07459150097685452</v>
+        <v>0.07141305291677824</v>
       </c>
       <c r="F19">
-        <v>9.195864856292616</v>
+        <v>9.359418398665412</v>
       </c>
       <c r="G19">
-        <v>0.0007829329418302794</v>
+        <v>0.0008278362526752046</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3951804364436811</v>
+        <v>0.3820254169804826</v>
       </c>
       <c r="K19">
-        <v>0.9187483383889941</v>
+        <v>1.449733067369294</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.500171977120544</v>
+        <v>1.462290741254947</v>
       </c>
       <c r="C20">
-        <v>0.78891781132603</v>
+        <v>0.1819686611085984</v>
       </c>
       <c r="D20">
-        <v>0.04832107688420706</v>
+        <v>0.07077967443816391</v>
       </c>
       <c r="E20">
-        <v>0.07754687345729394</v>
+        <v>0.0743357106094038</v>
       </c>
       <c r="F20">
-        <v>9.540588030760432</v>
+        <v>9.67265317052329</v>
       </c>
       <c r="G20">
-        <v>0.0007783574326514268</v>
+        <v>0.0008242786548287</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4108357143337713</v>
+        <v>0.3960791084851252</v>
       </c>
       <c r="K20">
-        <v>0.9604924581661578</v>
+        <v>1.512443088557205</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.022266466406336</v>
+        <v>1.667541066667837</v>
       </c>
       <c r="C21">
-        <v>0.9130748392995258</v>
+        <v>0.2107245952425387</v>
       </c>
       <c r="D21">
-        <v>0.05677682407196016</v>
+        <v>0.08182610512468358</v>
       </c>
       <c r="E21">
-        <v>0.08793761505283371</v>
+        <v>0.08455984279898843</v>
       </c>
       <c r="F21">
-        <v>10.7378955503097</v>
+        <v>10.74806996239238</v>
       </c>
       <c r="G21">
-        <v>0.0007629518855171786</v>
+        <v>0.0008123820266300858</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.465327961227743</v>
+        <v>0.4445183949685543</v>
       </c>
       <c r="K21">
-        <v>1.105781687263118</v>
+        <v>1.729740421099649</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.379054552549349</v>
+        <v>1.806704739515084</v>
       </c>
       <c r="C22">
-        <v>0.9984140402877415</v>
+        <v>0.2304698234234479</v>
       </c>
       <c r="D22">
-        <v>0.06268890023446261</v>
+        <v>0.08942751973739149</v>
       </c>
       <c r="E22">
-        <v>0.09513197155147779</v>
+        <v>0.09158619920697575</v>
       </c>
       <c r="F22">
-        <v>11.55505695077409</v>
+        <v>11.47085116928815</v>
       </c>
       <c r="G22">
-        <v>0.0007528155456227972</v>
+        <v>0.0008046286426830458</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5026137765375012</v>
+        <v>0.4772254180515318</v>
       </c>
       <c r="K22">
-        <v>1.205207829856775</v>
+        <v>1.877430663638563</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.187029756302707</v>
+        <v>1.731925450317078</v>
       </c>
       <c r="C23">
-        <v>0.9524336615640436</v>
+        <v>0.219835165237896</v>
       </c>
       <c r="D23">
-        <v>0.05949350772208106</v>
+        <v>0.0853315055160877</v>
       </c>
       <c r="E23">
-        <v>0.0912510540155651</v>
+        <v>0.08780162758549892</v>
       </c>
       <c r="F23">
-        <v>11.11536131194822</v>
+        <v>11.08307226008111</v>
       </c>
       <c r="G23">
-        <v>0.0007582348097565852</v>
+        <v>0.0008087661784128436</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4825421382574717</v>
+        <v>0.4596634496752188</v>
       </c>
       <c r="K23">
-        <v>1.151682098299403</v>
+        <v>1.798034218802968</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.491865315491339</v>
+        <v>1.459011208526363</v>
       </c>
       <c r="C24">
-        <v>0.7869492336703559</v>
+        <v>0.1815128013586076</v>
       </c>
       <c r="D24">
-        <v>0.04818841825502318</v>
+        <v>0.07060472431788156</v>
       </c>
       <c r="E24">
-        <v>0.07738298104883157</v>
+        <v>0.07417379191911522</v>
       </c>
       <c r="F24">
-        <v>9.521523172223368</v>
+        <v>9.655371947086365</v>
       </c>
       <c r="G24">
-        <v>0.0007786087189663507</v>
+        <v>0.0008244737608188958</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.409969482843664</v>
+        <v>0.3953030833716724</v>
       </c>
       <c r="K24">
-        <v>0.9581827813794064</v>
+        <v>1.508976303226575</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.793839991419816</v>
+        <v>1.18212031040477</v>
       </c>
       <c r="C25">
-        <v>0.6222645708677419</v>
+        <v>0.1434487447753412</v>
       </c>
       <c r="D25">
-        <v>0.03724962407193999</v>
+        <v>0.05599920379471968</v>
       </c>
       <c r="E25">
-        <v>0.06379422509769839</v>
+        <v>0.06068831746683401</v>
       </c>
       <c r="F25">
-        <v>7.917564272012726</v>
+        <v>8.18368190881759</v>
       </c>
       <c r="G25">
-        <v>0.0008005591719289183</v>
+        <v>0.0008416356051944099</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3372811312407293</v>
+        <v>0.3295259852650361</v>
       </c>
       <c r="K25">
-        <v>0.7643046976631069</v>
+        <v>1.216896180822317</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.989464478743713</v>
+        <v>0.9638112326314854</v>
       </c>
       <c r="C2">
-        <v>0.1174836072830914</v>
+        <v>0.2133708661298073</v>
       </c>
       <c r="D2">
-        <v>0.04600953004044328</v>
+        <v>0.1553546929818452</v>
       </c>
       <c r="E2">
-        <v>0.05155685387556375</v>
+        <v>0.1646149139588076</v>
       </c>
       <c r="F2">
-        <v>7.142435250819716</v>
+        <v>1.250106543729146</v>
       </c>
       <c r="G2">
-        <v>0.0008545798084741896</v>
+        <v>0.885671684336387</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00227079658231677</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2834189590930123</v>
+        <v>0.6260361592340757</v>
       </c>
       <c r="K2">
-        <v>1.014439103418084</v>
+        <v>0.56695697575433</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.21268661781194</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.141200849852225</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8643095565141721</v>
+        <v>0.837711846725341</v>
       </c>
       <c r="C3">
-        <v>0.1008638454370754</v>
+        <v>0.1854092085138177</v>
       </c>
       <c r="D3">
-        <v>0.03957688441197149</v>
+        <v>0.1356496220923589</v>
       </c>
       <c r="E3">
-        <v>0.04576424379231625</v>
+        <v>0.1443020061555096</v>
       </c>
       <c r="F3">
-        <v>6.456331548549883</v>
+        <v>1.182550197582472</v>
       </c>
       <c r="G3">
-        <v>0.0008635947620551283</v>
+        <v>0.8433857595326089</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.004237267188480609</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2532838546753595</v>
+        <v>0.6119781785078118</v>
       </c>
       <c r="K3">
-        <v>0.8832893299348257</v>
+        <v>0.5571924872929515</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1870212084995657</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9918301613041649</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7896802145559434</v>
+        <v>0.7604274381854736</v>
       </c>
       <c r="C4">
-        <v>0.09105410156281835</v>
+        <v>0.1682820241714467</v>
       </c>
       <c r="D4">
-        <v>0.03575395605854936</v>
+        <v>0.1235669558891175</v>
       </c>
       <c r="E4">
-        <v>0.04237393590380734</v>
+        <v>0.1318558837575701</v>
       </c>
       <c r="F4">
-        <v>6.042743797871452</v>
+        <v>1.142247083965231</v>
       </c>
       <c r="G4">
-        <v>0.0008692641283727946</v>
+        <v>0.8185369130698064</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00580142707103859</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2352328685506677</v>
+        <v>0.6039990024912498</v>
       </c>
       <c r="K4">
-        <v>0.8052384548338409</v>
+        <v>0.5519074889142743</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1712969938700226</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9002969731967312</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7597651312285905</v>
+        <v>0.7289576323118752</v>
       </c>
       <c r="C5">
-        <v>0.08714426440825207</v>
+        <v>0.1613100755516257</v>
       </c>
       <c r="D5">
-        <v>0.03422262463853798</v>
+        <v>0.1186455200957397</v>
       </c>
       <c r="E5">
-        <v>0.04103034314985976</v>
+        <v>0.126788113794813</v>
       </c>
       <c r="F5">
-        <v>5.875872473577942</v>
+        <v>1.12610138592278</v>
       </c>
       <c r="G5">
-        <v>0.000871610120729832</v>
+        <v>0.8086748493898313</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.006524210893052829</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2279777482088718</v>
+        <v>0.6009041323086564</v>
       </c>
       <c r="K5">
-        <v>0.7739863177758934</v>
+        <v>0.5499242195389549</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1648944113600948</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8630281016757522</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7548261083759087</v>
+        <v>0.723733241205764</v>
       </c>
       <c r="C6">
-        <v>0.08650001876041813</v>
+        <v>0.1601527616655716</v>
       </c>
       <c r="D6">
-        <v>0.03396980441583253</v>
+        <v>0.1178284118499562</v>
       </c>
       <c r="E6">
-        <v>0.04080942882070104</v>
+        <v>0.1259467947740518</v>
       </c>
       <c r="F6">
-        <v>5.848257161623394</v>
+        <v>1.123436701369968</v>
       </c>
       <c r="G6">
-        <v>0.0008720018800108195</v>
+        <v>0.8070527468611459</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006649261939659423</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2267787739616693</v>
+        <v>0.6003994877279553</v>
       </c>
       <c r="K6">
-        <v>0.7688285180600758</v>
+        <v>0.5496049580290325</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1638314799375848</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8568411554697946</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7892748328644075</v>
+        <v>0.7600029417279188</v>
       </c>
       <c r="C7">
-        <v>0.09100103149135919</v>
+        <v>0.1681879712897683</v>
       </c>
       <c r="D7">
-        <v>0.03573320321831375</v>
+        <v>0.123500576424874</v>
       </c>
       <c r="E7">
-        <v>0.04235566677719405</v>
+        <v>0.1317875244644817</v>
       </c>
       <c r="F7">
-        <v>6.040486886104503</v>
+        <v>1.14202823407787</v>
       </c>
       <c r="G7">
-        <v>0.0008692956202106198</v>
+        <v>0.8184028617092309</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00581083469079785</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2351346315180791</v>
+        <v>0.6039566389533491</v>
       </c>
       <c r="K7">
-        <v>0.8048148193160785</v>
+        <v>0.5518800624669247</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1712106300111742</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8997942417713887</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9458129923123977</v>
+        <v>0.9202958457729835</v>
       </c>
       <c r="C8">
-        <v>0.1116638329165625</v>
+        <v>0.203719296941216</v>
       </c>
       <c r="D8">
-        <v>0.04376188888712207</v>
+        <v>0.1485559018146887</v>
       </c>
       <c r="E8">
-        <v>0.04952259622469768</v>
+        <v>0.1576041023850507</v>
       </c>
       <c r="F8">
-        <v>6.904106541440115</v>
+        <v>1.226557908656631</v>
       </c>
       <c r="G8">
-        <v>0.0008576615464542433</v>
+        <v>0.8708500348213732</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002872132664319738</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2729264205069484</v>
+        <v>0.6210489978758602</v>
       </c>
       <c r="K8">
-        <v>0.9686617160065509</v>
+        <v>0.5634376489125543</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.203827871200545</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.08965161732047</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.273416325048942</v>
+        <v>1.236306732651286</v>
       </c>
       <c r="C9">
-        <v>0.1559049750779593</v>
+        <v>0.2738667509329673</v>
       </c>
       <c r="D9">
-        <v>0.06077994686611987</v>
+        <v>0.1979054365513804</v>
       </c>
       <c r="E9">
-        <v>0.06509203441333611</v>
+        <v>0.2085552235905723</v>
       </c>
       <c r="F9">
-        <v>8.671843133096701</v>
+        <v>1.402509186918067</v>
       </c>
       <c r="G9">
-        <v>0.0008358140971655682</v>
+        <v>0.9833249369352046</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0001440871636946284</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3512726359301865</v>
+        <v>0.6600963607744319</v>
       </c>
       <c r="K9">
-        <v>1.313062093034461</v>
+        <v>0.5921314180183828</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2682320953374955</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.46408263819967</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.531507317225248</v>
+        <v>1.471206736412483</v>
       </c>
       <c r="C10">
-        <v>0.1916165644711327</v>
+        <v>0.3236151708844659</v>
       </c>
       <c r="D10">
-        <v>0.07448334857946293</v>
+        <v>0.229605127424378</v>
       </c>
       <c r="E10">
-        <v>0.07776402985538056</v>
+        <v>0.2368452696722372</v>
       </c>
       <c r="F10">
-        <v>10.03664223405377</v>
+        <v>1.511206756204004</v>
       </c>
       <c r="G10">
-        <v>0.0008201994523275735</v>
+        <v>1.052623492734995</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0004232330359528191</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4124421721868998</v>
+        <v>0.682455081144667</v>
       </c>
       <c r="K10">
-        <v>1.585650571450543</v>
+        <v>0.6065452164114618</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3008035703555265</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.739211345305989</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.653962998937175</v>
+        <v>1.586427567229379</v>
       </c>
       <c r="C11">
-        <v>0.2088087067988056</v>
+        <v>0.3264108981672962</v>
       </c>
       <c r="D11">
-        <v>0.08108933741864632</v>
+        <v>0.2034729472387227</v>
       </c>
       <c r="E11">
-        <v>0.08387820962819603</v>
+        <v>0.1739679082175627</v>
       </c>
       <c r="F11">
-        <v>10.67728396665007</v>
+        <v>1.327093356001967</v>
       </c>
       <c r="G11">
-        <v>0.0008131511989684631</v>
+        <v>0.9154447213089156</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01899168344182911</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.441321504511734</v>
+        <v>0.6078299898011892</v>
       </c>
       <c r="K11">
-        <v>1.715345749000164</v>
+        <v>0.5236085618639308</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1984659506984343</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.844868013137528</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.701183506315402</v>
+        <v>1.634414115380309</v>
       </c>
       <c r="C12">
-        <v>0.2154797851463996</v>
+        <v>0.3181152447110094</v>
       </c>
       <c r="D12">
-        <v>0.08365532590859459</v>
+        <v>0.1763357288374721</v>
       </c>
       <c r="E12">
-        <v>0.08625179103493963</v>
+        <v>0.1241137996866399</v>
       </c>
       <c r="F12">
-        <v>10.92324972779829</v>
+        <v>1.158605748704616</v>
       </c>
       <c r="G12">
-        <v>0.0008104862817613793</v>
+        <v>0.7925343620653678</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05757225449632841</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4524349137578838</v>
+        <v>0.5435518957681325</v>
       </c>
       <c r="K12">
-        <v>1.765417973689068</v>
+        <v>0.4556479272026266</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.125925913622531</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.875453847022868</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.690973799311081</v>
+        <v>1.6329164821733</v>
       </c>
       <c r="C13">
-        <v>0.2140354639106903</v>
+        <v>0.3008852558821786</v>
       </c>
       <c r="D13">
-        <v>0.08309963677940146</v>
+        <v>0.1470630272162481</v>
       </c>
       <c r="E13">
-        <v>0.08573786565697716</v>
+        <v>0.08168193781527577</v>
       </c>
       <c r="F13">
-        <v>10.87011764565466</v>
+        <v>0.9925927402509132</v>
       </c>
       <c r="G13">
-        <v>0.0008110601030361628</v>
+        <v>0.6733552806291243</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.113184733271126</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4500330959034926</v>
+        <v>0.4833492226412517</v>
       </c>
       <c r="K13">
-        <v>1.754588882232468</v>
+        <v>0.3949816832964075</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07240280435964053</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.849707499957731</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.657830068819351</v>
+        <v>1.609502727087516</v>
       </c>
       <c r="C14">
-        <v>0.2093541630625708</v>
+        <v>0.2849079679552631</v>
       </c>
       <c r="D14">
-        <v>0.08129908292787746</v>
+        <v>0.1260463517875223</v>
       </c>
       <c r="E14">
-        <v>0.08407226756977337</v>
+        <v>0.05685196564437334</v>
       </c>
       <c r="F14">
-        <v>10.6974489428228</v>
+        <v>0.8798366630623775</v>
       </c>
       <c r="G14">
-        <v>0.0008129318960425864</v>
+        <v>0.5933007954996441</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1624624201268574</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.442232092874093</v>
+        <v>0.4438149426015059</v>
       </c>
       <c r="K14">
-        <v>1.719445110113867</v>
+        <v>0.3567503837919119</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04660462256009623</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.80632547018314</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.637643132144092</v>
+        <v>1.593175205273042</v>
       </c>
       <c r="C15">
-        <v>0.2065084673412372</v>
+        <v>0.279165607472919</v>
       </c>
       <c r="D15">
-        <v>0.08020493589932443</v>
+        <v>0.1203239575596484</v>
       </c>
       <c r="E15">
-        <v>0.08305988756349691</v>
+        <v>0.05126501365705671</v>
       </c>
       <c r="F15">
-        <v>10.59213986432599</v>
+        <v>0.8518210520401084</v>
       </c>
       <c r="G15">
-        <v>0.0008140788358429046</v>
+        <v>0.5737416159342814</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749559974588806</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4374776964342146</v>
+        <v>0.4346562095938111</v>
       </c>
       <c r="K15">
-        <v>1.698048023014422</v>
+        <v>0.3483635475481925</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.04174990226186814</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.783837351328174</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.5236162745135</v>
+        <v>1.491605686079367</v>
       </c>
       <c r="C16">
-        <v>0.1905140902751157</v>
+        <v>0.2617240687300466</v>
       </c>
       <c r="D16">
-        <v>0.0740600192337908</v>
+        <v>0.1136007181639371</v>
       </c>
       <c r="E16">
-        <v>0.07737214627449518</v>
+        <v>0.04926289169960718</v>
       </c>
       <c r="F16">
-        <v>9.995216050329617</v>
+        <v>0.84113971858757</v>
       </c>
       <c r="G16">
-        <v>0.0008206608649252571</v>
+        <v>0.5691030084369686</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1622346272375381</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.410578169207966</v>
+        <v>0.4374372090666725</v>
       </c>
       <c r="K16">
-        <v>1.577300820337342</v>
+        <v>0.3543755161746596</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.04067823822300909</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.670642592473797</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.455039816305572</v>
+        <v>1.426391488357666</v>
       </c>
       <c r="C17">
-        <v>0.1809609261679981</v>
+        <v>0.2567763707313304</v>
       </c>
       <c r="D17">
-        <v>0.07039293020513782</v>
+        <v>0.1192826550630315</v>
       </c>
       <c r="E17">
-        <v>0.07397777825237029</v>
+        <v>0.05981417137234857</v>
       </c>
       <c r="F17">
-        <v>9.634440688747105</v>
+        <v>0.8916768779542394</v>
       </c>
       <c r="G17">
-        <v>0.0008247102550285405</v>
+        <v>0.6073581305944629</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1245212858814</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3943632559500969</v>
+        <v>0.4603117827888923</v>
       </c>
       <c r="K17">
-        <v>1.504778379290087</v>
+        <v>0.3789614302428461</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05135846672821742</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.607054501674071</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.416063327350059</v>
+        <v>1.384919792758865</v>
       </c>
       <c r="C18">
-        <v>0.1755536329250873</v>
+        <v>0.2619903419187608</v>
       </c>
       <c r="D18">
-        <v>0.06831801476000265</v>
+        <v>0.137201799441371</v>
       </c>
       <c r="E18">
-        <v>0.07205779303264848</v>
+        <v>0.08701358890008848</v>
       </c>
       <c r="F18">
-        <v>9.428759475536083</v>
+        <v>1.006069256416282</v>
       </c>
       <c r="G18">
-        <v>0.0008270447827941307</v>
+        <v>0.6909091725720344</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07168547513275314</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3851342221067995</v>
+        <v>0.5049452079617112</v>
       </c>
       <c r="K18">
-        <v>1.463591724246157</v>
+        <v>0.4249717456217716</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08361401372729915</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.57849991759673</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.402943273770916</v>
+        <v>1.365689018435177</v>
       </c>
       <c r="C19">
-        <v>0.1737371423874521</v>
+        <v>0.2751422801676995</v>
       </c>
       <c r="D19">
-        <v>0.06762106742813501</v>
+        <v>0.1652570633640522</v>
       </c>
       <c r="E19">
-        <v>0.07141305291677824</v>
+        <v>0.1328596813386405</v>
       </c>
       <c r="F19">
-        <v>9.359418398665412</v>
+        <v>1.172868423326207</v>
       </c>
       <c r="G19">
-        <v>0.0008278362526752046</v>
+        <v>0.811818136463458</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02632998980026002</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3820254169804826</v>
+        <v>0.5670788234683073</v>
       </c>
       <c r="K19">
-        <v>1.449733067369294</v>
+        <v>0.4892649432352698</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.146527555848273</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.580105995546461</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.462290741254947</v>
+        <v>1.409406228461876</v>
       </c>
       <c r="C20">
-        <v>0.1819686611085984</v>
+        <v>0.31042122299624</v>
       </c>
       <c r="D20">
-        <v>0.07077967443816391</v>
+        <v>0.2210667405484372</v>
       </c>
       <c r="E20">
-        <v>0.0743357106094038</v>
+        <v>0.2289990443457128</v>
       </c>
       <c r="F20">
-        <v>9.67265317052329</v>
+        <v>1.480954030675534</v>
       </c>
       <c r="G20">
-        <v>0.0008242786548287</v>
+        <v>1.033057361884175</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001852070151491247</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3960791084851252</v>
+        <v>0.6758695459754307</v>
       </c>
       <c r="K20">
-        <v>1.512443088557205</v>
+        <v>0.6019841707040925</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2915808861499016</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.666686671691508</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.667541066667837</v>
+        <v>1.589161562968542</v>
       </c>
       <c r="C21">
-        <v>0.2107245952425387</v>
+        <v>0.3523541313413432</v>
       </c>
       <c r="D21">
-        <v>0.08182610512468358</v>
+        <v>0.252957355076191</v>
       </c>
       <c r="E21">
-        <v>0.08455984279898843</v>
+        <v>0.265584551369237</v>
       </c>
       <c r="F21">
-        <v>10.74806996239238</v>
+        <v>1.610465992677717</v>
       </c>
       <c r="G21">
-        <v>0.0008123820266300858</v>
+        <v>1.120289873157532</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0009751651343725687</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4445183949685543</v>
+        <v>0.7102272890365953</v>
       </c>
       <c r="K21">
-        <v>1.729740421099649</v>
+        <v>0.6314673503774131</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3404087531075959</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.882386566920019</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.806704739515084</v>
+        <v>1.70771032868808</v>
       </c>
       <c r="C22">
-        <v>0.2304698234234479</v>
+        <v>0.3787629665983445</v>
       </c>
       <c r="D22">
-        <v>0.08942751973739149</v>
+        <v>0.2714436434107341</v>
       </c>
       <c r="E22">
-        <v>0.09158619920697575</v>
+        <v>0.2847835454348768</v>
       </c>
       <c r="F22">
-        <v>11.47085116928815</v>
+        <v>1.682624708647054</v>
       </c>
       <c r="G22">
-        <v>0.0008046286426830458</v>
+        <v>1.168605248794904</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002043534089642085</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4772254180515318</v>
+        <v>0.7283602320397051</v>
       </c>
       <c r="K22">
-        <v>1.877430663638563</v>
+        <v>0.646139375173945</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3647332324184163</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.022976911527195</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.731925450317078</v>
+        <v>1.644375080350898</v>
       </c>
       <c r="C23">
-        <v>0.219835165237896</v>
+        <v>0.3646514158112382</v>
       </c>
       <c r="D23">
-        <v>0.0853315055160877</v>
+        <v>0.2615677952535975</v>
       </c>
       <c r="E23">
-        <v>0.08780162758549892</v>
+        <v>0.2745238342871446</v>
       </c>
       <c r="F23">
-        <v>11.08307226008111</v>
+        <v>1.643940123555467</v>
       </c>
       <c r="G23">
-        <v>0.0008087661784128436</v>
+        <v>1.142657740972382</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001426351623063038</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4596634496752188</v>
+        <v>0.7185977624225899</v>
       </c>
       <c r="K23">
-        <v>1.798034218802968</v>
+        <v>0.6382158985932449</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3517327857683767</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.947862516492989</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.459011208526363</v>
+        <v>1.405791834888447</v>
       </c>
       <c r="C24">
-        <v>0.1815128013586076</v>
+        <v>0.3115445608939069</v>
       </c>
       <c r="D24">
-        <v>0.07060472431788156</v>
+        <v>0.2243539764576639</v>
       </c>
       <c r="E24">
-        <v>0.07417379191911522</v>
+        <v>0.2359272068544485</v>
       </c>
       <c r="F24">
-        <v>9.655371947086365</v>
+        <v>1.501049840485578</v>
       </c>
       <c r="G24">
-        <v>0.0008244737608188958</v>
+        <v>1.047768114963105</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.282399986203615E-05</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3953030833716724</v>
+        <v>0.6834151501991386</v>
       </c>
       <c r="K24">
-        <v>1.508976303226575</v>
+        <v>0.6101702407683689</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3028605082321718</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.664975556367295</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.18212031040477</v>
+        <v>1.150553808014905</v>
       </c>
       <c r="C25">
-        <v>0.1434487447753412</v>
+        <v>0.2548182352443291</v>
       </c>
       <c r="D25">
-        <v>0.05599920379471968</v>
+        <v>0.1845189031935348</v>
       </c>
       <c r="E25">
-        <v>0.06068831746683401</v>
+        <v>0.1947192530331421</v>
       </c>
       <c r="F25">
-        <v>8.18368190881759</v>
+        <v>1.353693212644302</v>
       </c>
       <c r="G25">
-        <v>0.0008416356051944099</v>
+        <v>0.9517521398739746</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0005274795174550206</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3295259852650361</v>
+        <v>0.6488892626744587</v>
       </c>
       <c r="K25">
-        <v>1.216896180822317</v>
+        <v>0.5836659546696765</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2507367407987147</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.362458796508577</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9638112326314854</v>
+        <v>0.9473441356199146</v>
       </c>
       <c r="C2">
-        <v>0.2133708661298073</v>
+        <v>0.2580057268677649</v>
       </c>
       <c r="D2">
-        <v>0.1553546929818452</v>
+        <v>0.1759185824319616</v>
       </c>
       <c r="E2">
-        <v>0.1646149139588076</v>
+        <v>0.1720317304403878</v>
       </c>
       <c r="F2">
-        <v>1.250106543729146</v>
+        <v>1.108386281520936</v>
       </c>
       <c r="G2">
-        <v>0.885671684336387</v>
+        <v>0.7353567233267029</v>
       </c>
       <c r="H2">
-        <v>0.00227079658231677</v>
+        <v>0.001723201378869943</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6260361592340757</v>
+        <v>0.5706157550948205</v>
       </c>
       <c r="K2">
-        <v>0.56695697575433</v>
+        <v>0.4610647911549464</v>
       </c>
       <c r="L2">
-        <v>0.21268661781194</v>
+        <v>0.2143864423476209</v>
       </c>
       <c r="M2">
-        <v>1.141200849852225</v>
+        <v>0.136748103763388</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2115169508485337</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.180581975432574</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.837711846725341</v>
+        <v>0.8263661435494214</v>
       </c>
       <c r="C3">
-        <v>0.1854092085138177</v>
+        <v>0.2218885545665472</v>
       </c>
       <c r="D3">
-        <v>0.1356496220923589</v>
+        <v>0.153084422587213</v>
       </c>
       <c r="E3">
-        <v>0.1443020061555096</v>
+        <v>0.1510530207839054</v>
       </c>
       <c r="F3">
-        <v>1.182550197582472</v>
+        <v>1.057420200727321</v>
       </c>
       <c r="G3">
-        <v>0.8433857595326089</v>
+        <v>0.7109759446124571</v>
       </c>
       <c r="H3">
-        <v>0.004237267188480609</v>
+        <v>0.00332297288918415</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6119781785078118</v>
+        <v>0.5586000193278551</v>
       </c>
       <c r="K3">
-        <v>0.5571924872929515</v>
+        <v>0.4598027550389574</v>
       </c>
       <c r="L3">
-        <v>0.1870212084995657</v>
+        <v>0.2184183287718398</v>
       </c>
       <c r="M3">
-        <v>0.9918301613041649</v>
+        <v>0.1328782216280651</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1868393492852434</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.0251769727154</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7604274381854736</v>
+        <v>0.7520302117906681</v>
       </c>
       <c r="C4">
-        <v>0.1682820241714467</v>
+        <v>0.1998840408807467</v>
       </c>
       <c r="D4">
-        <v>0.1235669558891175</v>
+        <v>0.1391143675322724</v>
       </c>
       <c r="E4">
-        <v>0.1318558837575701</v>
+        <v>0.1381961222468213</v>
       </c>
       <c r="F4">
-        <v>1.142247083965231</v>
+        <v>1.026957723863106</v>
       </c>
       <c r="G4">
-        <v>0.8185369130698064</v>
+        <v>0.6969861524323591</v>
       </c>
       <c r="H4">
-        <v>0.00580142707103859</v>
+        <v>0.004610100600984657</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6039990024912498</v>
+        <v>0.551468491863659</v>
       </c>
       <c r="K4">
-        <v>0.5519074889142743</v>
+        <v>0.45949673852137</v>
       </c>
       <c r="L4">
-        <v>0.1712969938700226</v>
+        <v>0.2209843800013402</v>
       </c>
       <c r="M4">
-        <v>0.9002969731967312</v>
+        <v>0.1312936566297118</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1716949931073799</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9299000142383136</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7289576323118752</v>
+        <v>0.7217160903528566</v>
       </c>
       <c r="C5">
-        <v>0.1613100755516257</v>
+        <v>0.1909566410481887</v>
       </c>
       <c r="D5">
-        <v>0.1186455200957397</v>
+        <v>0.1334324326994789</v>
       </c>
       <c r="E5">
-        <v>0.126788113794813</v>
+        <v>0.1329608344644342</v>
       </c>
       <c r="F5">
-        <v>1.12610138592278</v>
+        <v>1.014739193473432</v>
       </c>
       <c r="G5">
-        <v>0.8086748493898313</v>
+        <v>0.6915166804551234</v>
       </c>
       <c r="H5">
-        <v>0.006524210893052829</v>
+        <v>0.005207679196337578</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6009041323086564</v>
+        <v>0.5486208547969653</v>
       </c>
       <c r="K5">
-        <v>0.5499242195389549</v>
+        <v>0.4594842658234057</v>
       </c>
       <c r="L5">
-        <v>0.1648944113600948</v>
+        <v>0.2220525235370623</v>
       </c>
       <c r="M5">
-        <v>0.8630281016757522</v>
+        <v>0.1308425916475038</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1655226891295456</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8910984618377711</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.723733241205764</v>
+        <v>0.7166809285769773</v>
       </c>
       <c r="C6">
-        <v>0.1601527616655716</v>
+        <v>0.189476546789507</v>
       </c>
       <c r="D6">
-        <v>0.1178284118499562</v>
+        <v>0.1324895682294454</v>
       </c>
       <c r="E6">
-        <v>0.1259467947740518</v>
+        <v>0.1320917022633452</v>
       </c>
       <c r="F6">
-        <v>1.123436701369968</v>
+        <v>1.012721712922023</v>
       </c>
       <c r="G6">
-        <v>0.8070527468611459</v>
+        <v>0.6906220342134333</v>
       </c>
       <c r="H6">
-        <v>0.006649261939659423</v>
+        <v>0.005311216954446418</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6003994877279553</v>
+        <v>0.5481514449390517</v>
       </c>
       <c r="K6">
-        <v>0.5496049580290325</v>
+        <v>0.4594888118733564</v>
       </c>
       <c r="L6">
-        <v>0.1638314799375848</v>
+        <v>0.222231236191103</v>
       </c>
       <c r="M6">
-        <v>0.8568411554697946</v>
+        <v>0.1307793254283691</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1644976510665899</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.884656663556882</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7600029417279188</v>
+        <v>0.7518370350479699</v>
       </c>
       <c r="C7">
-        <v>0.1681879712897683</v>
+        <v>0.1993039401374546</v>
       </c>
       <c r="D7">
-        <v>0.123500576424874</v>
+        <v>0.1394162395766472</v>
       </c>
       <c r="E7">
-        <v>0.1317875244644817</v>
+        <v>0.1382222942454412</v>
       </c>
       <c r="F7">
-        <v>1.14202823407787</v>
+        <v>1.024424044518369</v>
       </c>
       <c r="G7">
-        <v>0.8184028617092309</v>
+        <v>0.6995309282095121</v>
       </c>
       <c r="H7">
-        <v>0.00581083469079785</v>
+        <v>0.004624271484995446</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6039566389533491</v>
+        <v>0.5451832137978982</v>
       </c>
       <c r="K7">
-        <v>0.5518800624669247</v>
+        <v>0.4583796017067954</v>
       </c>
       <c r="L7">
-        <v>0.1712106300111742</v>
+        <v>0.2204936554015688</v>
       </c>
       <c r="M7">
-        <v>0.8997942417713887</v>
+        <v>0.1309531248771698</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1715246533761672</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9290099124867481</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9202958457729835</v>
+        <v>0.9063566714893625</v>
       </c>
       <c r="C8">
-        <v>0.203719296941216</v>
+        <v>0.243959028625909</v>
       </c>
       <c r="D8">
-        <v>0.1485559018146887</v>
+        <v>0.1693108724052763</v>
       </c>
       <c r="E8">
-        <v>0.1576041023850507</v>
+        <v>0.1651181331997762</v>
       </c>
       <c r="F8">
-        <v>1.226557908656631</v>
+        <v>1.082824645897375</v>
       </c>
       <c r="G8">
-        <v>0.8708500348213732</v>
+        <v>0.7355072906288171</v>
       </c>
       <c r="H8">
-        <v>0.002872132664319738</v>
+        <v>0.002223010663419789</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6210489978758602</v>
+        <v>0.5460390390541505</v>
       </c>
       <c r="K8">
-        <v>0.5634376489125543</v>
+        <v>0.4568978419985754</v>
       </c>
       <c r="L8">
-        <v>0.203827871200545</v>
+        <v>0.2142234583638114</v>
       </c>
       <c r="M8">
-        <v>1.08965161732047</v>
+        <v>0.1340519690111428</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2027144213768466</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.125721344603591</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.236306732651286</v>
+        <v>1.2085360823923</v>
       </c>
       <c r="C9">
-        <v>0.2738667509329673</v>
+        <v>0.3347260784009052</v>
       </c>
       <c r="D9">
-        <v>0.1979054365513804</v>
+        <v>0.2270368320989888</v>
       </c>
       <c r="E9">
-        <v>0.2085552235905723</v>
+        <v>0.2177996609013988</v>
       </c>
       <c r="F9">
-        <v>1.402509186918067</v>
+        <v>1.21319219405359</v>
       </c>
       <c r="G9">
-        <v>0.9833249369352046</v>
+        <v>0.8049645439582349</v>
       </c>
       <c r="H9">
-        <v>0.0001440871636946284</v>
+        <v>7.678753840534291E-05</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6600963607744319</v>
+        <v>0.5720937776308261</v>
       </c>
       <c r="K9">
-        <v>0.5921314180183828</v>
+        <v>0.4620337083140029</v>
       </c>
       <c r="L9">
-        <v>0.2682320953374955</v>
+        <v>0.2045038728438513</v>
       </c>
       <c r="M9">
-        <v>1.46408263819967</v>
+        <v>0.1478189723060268</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2643893737054128</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.514483935438335</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.471206736412483</v>
+        <v>1.433896560398324</v>
       </c>
       <c r="C10">
-        <v>0.3236151708844659</v>
+        <v>0.396088043990801</v>
       </c>
       <c r="D10">
-        <v>0.229605127424378</v>
+        <v>0.2665807223348935</v>
       </c>
       <c r="E10">
-        <v>0.2368452696722372</v>
+        <v>0.2475902679797741</v>
       </c>
       <c r="F10">
-        <v>1.511206756204004</v>
+        <v>1.277890425691353</v>
       </c>
       <c r="G10">
-        <v>1.052623492734995</v>
+        <v>0.8622340526303702</v>
       </c>
       <c r="H10">
-        <v>0.0004232330359528191</v>
+        <v>0.0004483081261983379</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.682455081144667</v>
+        <v>0.551200819457577</v>
       </c>
       <c r="K10">
-        <v>0.6065452164114618</v>
+        <v>0.4550993213281629</v>
       </c>
       <c r="L10">
-        <v>0.3008035703555265</v>
+        <v>0.1930191593894044</v>
       </c>
       <c r="M10">
-        <v>1.739211345305989</v>
+        <v>0.1568063254841654</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2945196969505872</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.796617907182082</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.586427567229379</v>
+        <v>1.552526071604319</v>
       </c>
       <c r="C11">
-        <v>0.3264108981672962</v>
+        <v>0.3876847410932101</v>
       </c>
       <c r="D11">
-        <v>0.2034729472387227</v>
+        <v>0.2409032379603389</v>
       </c>
       <c r="E11">
-        <v>0.1739679082175627</v>
+        <v>0.1835427218773091</v>
       </c>
       <c r="F11">
-        <v>1.327093356001967</v>
+        <v>1.096333065726853</v>
       </c>
       <c r="G11">
-        <v>0.9154447213089156</v>
+        <v>0.7822487391745057</v>
       </c>
       <c r="H11">
-        <v>0.01899168344182911</v>
+        <v>0.01898899558355538</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6078299898011892</v>
+        <v>0.4343103527262571</v>
       </c>
       <c r="K11">
-        <v>0.5236085618639308</v>
+        <v>0.382664787179813</v>
       </c>
       <c r="L11">
-        <v>0.1984659506984343</v>
+        <v>0.163939732550606</v>
       </c>
       <c r="M11">
-        <v>1.844868013137528</v>
+        <v>0.132984199545362</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1927648593618372</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.894444766746744</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.634414115380309</v>
+        <v>1.604955175670199</v>
       </c>
       <c r="C12">
-        <v>0.3181152447110094</v>
+        <v>0.3694140612057026</v>
       </c>
       <c r="D12">
-        <v>0.1763357288374721</v>
+        <v>0.2109682841112033</v>
       </c>
       <c r="E12">
-        <v>0.1241137996866399</v>
+        <v>0.1320089484183136</v>
       </c>
       <c r="F12">
-        <v>1.158605748704616</v>
+        <v>0.9480057691024228</v>
       </c>
       <c r="G12">
-        <v>0.7925343620653678</v>
+        <v>0.6959890123953016</v>
       </c>
       <c r="H12">
-        <v>0.05757225449632841</v>
+        <v>0.0575667372670523</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5435518957681325</v>
+        <v>0.3702020565145858</v>
       </c>
       <c r="K12">
-        <v>0.4556479272026266</v>
+        <v>0.3315705641370883</v>
       </c>
       <c r="L12">
-        <v>0.125925913622531</v>
+        <v>0.1454210426495735</v>
       </c>
       <c r="M12">
-        <v>1.875453847022868</v>
+        <v>0.113664264301395</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1215657704262725</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.918169545824213</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.6329164821733</v>
+        <v>1.608256203679332</v>
       </c>
       <c r="C13">
-        <v>0.3008852558821786</v>
+        <v>0.3437225818383638</v>
       </c>
       <c r="D13">
-        <v>0.1470630272162481</v>
+        <v>0.1757804257254207</v>
       </c>
       <c r="E13">
-        <v>0.08168193781527577</v>
+        <v>0.08746820419561629</v>
       </c>
       <c r="F13">
-        <v>0.9925927402509132</v>
+        <v>0.8185409453702661</v>
       </c>
       <c r="G13">
-        <v>0.6733552806291243</v>
+        <v>0.5956295645855931</v>
       </c>
       <c r="H13">
-        <v>0.113184733271126</v>
+        <v>0.113188010153138</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4833492226412517</v>
+        <v>0.3413092278596608</v>
       </c>
       <c r="K13">
-        <v>0.3949816832964075</v>
+        <v>0.2938384927513518</v>
       </c>
       <c r="L13">
-        <v>0.07240280435964053</v>
+        <v>0.1330161108937826</v>
       </c>
       <c r="M13">
-        <v>1.849707499957731</v>
+        <v>0.09740765352220393</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06985419700496109</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.887031229321053</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.609502727087516</v>
+        <v>1.588326327191908</v>
       </c>
       <c r="C14">
-        <v>0.2849079679552631</v>
+        <v>0.3224410972009082</v>
       </c>
       <c r="D14">
-        <v>0.1260463517875223</v>
+        <v>0.1496081123404593</v>
       </c>
       <c r="E14">
-        <v>0.05685196564437334</v>
+        <v>0.06114895879414561</v>
       </c>
       <c r="F14">
-        <v>0.8798366630623775</v>
+        <v>0.7363929796456148</v>
       </c>
       <c r="G14">
-        <v>0.5933007954996441</v>
+        <v>0.5222590383034031</v>
       </c>
       <c r="H14">
-        <v>0.1624624201268574</v>
+        <v>0.1624644708935961</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4438149426015059</v>
+        <v>0.3330822544302308</v>
       </c>
       <c r="K14">
-        <v>0.3567503837919119</v>
+        <v>0.2730621319840161</v>
       </c>
       <c r="L14">
-        <v>0.04660462256009623</v>
+        <v>0.1266699620769298</v>
       </c>
       <c r="M14">
-        <v>1.80632547018314</v>
+        <v>0.0875529485856319</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04533417785445693</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.840477976721473</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.593175205273042</v>
+        <v>1.572916092684665</v>
       </c>
       <c r="C15">
-        <v>0.279165607472919</v>
+        <v>0.3155918293364834</v>
       </c>
       <c r="D15">
-        <v>0.1203239575596484</v>
+        <v>0.1421537335411642</v>
       </c>
       <c r="E15">
-        <v>0.05126501365705671</v>
+        <v>0.05517163938516845</v>
       </c>
       <c r="F15">
-        <v>0.8518210520401084</v>
+        <v>0.71830902876669</v>
       </c>
       <c r="G15">
-        <v>0.5737416159342814</v>
+        <v>0.5021752727406579</v>
       </c>
       <c r="H15">
-        <v>0.1749559974588806</v>
+        <v>0.1749536702508721</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4346562095938111</v>
+        <v>0.3357174767803883</v>
       </c>
       <c r="K15">
-        <v>0.3483635475481925</v>
+        <v>0.2697850481714106</v>
       </c>
       <c r="L15">
-        <v>0.04174990226186814</v>
+        <v>0.1258908324602874</v>
       </c>
       <c r="M15">
-        <v>1.783837351328174</v>
+        <v>0.08555426243640341</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0408277779340338</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.817473903232212</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.491605686079367</v>
+        <v>1.47228837418254</v>
       </c>
       <c r="C16">
-        <v>0.2617240687300466</v>
+        <v>0.2991738398649773</v>
       </c>
       <c r="D16">
-        <v>0.1136007181639371</v>
+        <v>0.1310413989409085</v>
       </c>
       <c r="E16">
-        <v>0.04926289169960718</v>
+        <v>0.05273968430332587</v>
       </c>
       <c r="F16">
-        <v>0.84113971858757</v>
+        <v>0.7310813019369036</v>
       </c>
       <c r="G16">
-        <v>0.5691030084369686</v>
+        <v>0.480808649977007</v>
       </c>
       <c r="H16">
-        <v>0.1622346272375381</v>
+        <v>0.1621799057279247</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4374372090666725</v>
+        <v>0.3786019995233119</v>
       </c>
       <c r="K16">
-        <v>0.3543755161746596</v>
+        <v>0.2846768760602068</v>
       </c>
       <c r="L16">
-        <v>0.04067823822300909</v>
+        <v>0.1327694480908654</v>
       </c>
       <c r="M16">
-        <v>1.670642592473797</v>
+        <v>0.0883219904878203</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04034956418921709</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.70616667107285</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.426391488357666</v>
+        <v>1.406339662181068</v>
       </c>
       <c r="C17">
-        <v>0.2567763707313304</v>
+        <v>0.2971539108558545</v>
       </c>
       <c r="D17">
-        <v>0.1192826550630315</v>
+        <v>0.1362277372184337</v>
       </c>
       <c r="E17">
-        <v>0.05981417137234857</v>
+        <v>0.06364335418985689</v>
       </c>
       <c r="F17">
-        <v>0.8916768779542394</v>
+        <v>0.7829123010328729</v>
       </c>
       <c r="G17">
-        <v>0.6073581305944629</v>
+        <v>0.5044828334281135</v>
       </c>
       <c r="H17">
-        <v>0.1245212858814</v>
+        <v>0.124421434888248</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4603117827888923</v>
+        <v>0.4153250697644779</v>
       </c>
       <c r="K17">
-        <v>0.3789614302428461</v>
+        <v>0.3070007201935852</v>
       </c>
       <c r="L17">
-        <v>0.05135846672821742</v>
+        <v>0.1418599986486928</v>
       </c>
       <c r="M17">
-        <v>1.607054501674071</v>
+        <v>0.09523132738408435</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05096726069582758</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.645042605099661</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.384919792758865</v>
+        <v>1.362203156550322</v>
       </c>
       <c r="C18">
-        <v>0.2619903419187608</v>
+        <v>0.3083745952182539</v>
       </c>
       <c r="D18">
-        <v>0.137201799441371</v>
+        <v>0.1563213203680505</v>
       </c>
       <c r="E18">
-        <v>0.08701358890008848</v>
+        <v>0.09187493693548987</v>
       </c>
       <c r="F18">
-        <v>1.006069256416282</v>
+        <v>0.8827150596546147</v>
       </c>
       <c r="G18">
-        <v>0.6909091725720344</v>
+        <v>0.5672737367614928</v>
       </c>
       <c r="H18">
-        <v>0.07168547513275314</v>
+        <v>0.07157955762107804</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5049452079617112</v>
+        <v>0.4591331206952134</v>
       </c>
       <c r="K18">
-        <v>0.4249717456217716</v>
+        <v>0.3417387790992841</v>
       </c>
       <c r="L18">
-        <v>0.08361401372729915</v>
+        <v>0.155263538901881</v>
       </c>
       <c r="M18">
-        <v>1.57849991759673</v>
+        <v>0.1075896102706722</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08260056968807916</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.620629701029941</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.365689018435177</v>
+        <v>1.338801966746274</v>
       </c>
       <c r="C19">
-        <v>0.2751422801676995</v>
+        <v>0.3301791246047969</v>
       </c>
       <c r="D19">
-        <v>0.1652570633640522</v>
+        <v>0.1885760476794331</v>
       </c>
       <c r="E19">
-        <v>0.1328596813386405</v>
+        <v>0.1393615740743535</v>
       </c>
       <c r="F19">
-        <v>1.172868423326207</v>
+        <v>1.022650869927304</v>
       </c>
       <c r="G19">
-        <v>0.811818136463458</v>
+        <v>0.6603879738292164</v>
       </c>
       <c r="H19">
-        <v>0.02632998980026002</v>
+        <v>0.02626379030115089</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5670788234683073</v>
+        <v>0.5107452209055197</v>
       </c>
       <c r="K19">
-        <v>0.4892649432352698</v>
+        <v>0.3874193711606111</v>
       </c>
       <c r="L19">
-        <v>0.146527555848273</v>
+        <v>0.1723784147819067</v>
       </c>
       <c r="M19">
-        <v>1.580105995546461</v>
+        <v>0.1247886191238301</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1443258778368772</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.627738313731726</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.409406228461876</v>
+        <v>1.373933757177838</v>
       </c>
       <c r="C20">
-        <v>0.31042122299624</v>
+        <v>0.3815029724664782</v>
       </c>
       <c r="D20">
-        <v>0.2210667405484372</v>
+        <v>0.2545175763959122</v>
       </c>
       <c r="E20">
-        <v>0.2289990443457128</v>
+        <v>0.2389831757712315</v>
       </c>
       <c r="F20">
-        <v>1.480954030675534</v>
+        <v>1.267788015594704</v>
       </c>
       <c r="G20">
-        <v>1.033057361884175</v>
+        <v>0.8363838082336343</v>
       </c>
       <c r="H20">
-        <v>0.0001852070151491247</v>
+        <v>0.0002133562714892179</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6758695459754307</v>
+        <v>0.5769081638380555</v>
       </c>
       <c r="K20">
-        <v>0.6019841707040925</v>
+        <v>0.4600826298185368</v>
       </c>
       <c r="L20">
-        <v>0.2915808861499016</v>
+        <v>0.1971542032914009</v>
       </c>
       <c r="M20">
-        <v>1.666686671691508</v>
+        <v>0.1555313484410803</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2862722058129634</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.723673413634316</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.589161562968542</v>
+        <v>1.54911344221361</v>
       </c>
       <c r="C21">
-        <v>0.3523541313413432</v>
+        <v>0.4252943916058598</v>
       </c>
       <c r="D21">
-        <v>0.252957355076191</v>
+        <v>0.3014798269744574</v>
       </c>
       <c r="E21">
-        <v>0.265584551369237</v>
+        <v>0.2791579508852564</v>
       </c>
       <c r="F21">
-        <v>1.610465992677717</v>
+        <v>1.311018389436626</v>
       </c>
       <c r="G21">
-        <v>1.120289873157532</v>
+        <v>0.960494273910669</v>
       </c>
       <c r="H21">
-        <v>0.0009751651343725687</v>
+        <v>0.0009110656545159301</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7102272890365953</v>
+        <v>0.4720007524543917</v>
       </c>
       <c r="K21">
-        <v>0.6314673503774131</v>
+        <v>0.4478187479458313</v>
       </c>
       <c r="L21">
-        <v>0.3404087531075959</v>
+        <v>0.1860346999149911</v>
       </c>
       <c r="M21">
-        <v>1.882386566920019</v>
+        <v>0.1603693323222153</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3310280135467139</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.938211508058771</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.70771032868808</v>
+        <v>1.665144332837144</v>
       </c>
       <c r="C22">
-        <v>0.3787629665983445</v>
+        <v>0.4514095768605557</v>
       </c>
       <c r="D22">
-        <v>0.2714436434107341</v>
+        <v>0.3303866543168681</v>
       </c>
       <c r="E22">
-        <v>0.2847835454348768</v>
+        <v>0.3007646260921604</v>
       </c>
       <c r="F22">
-        <v>1.682624708647054</v>
+        <v>1.32523021006449</v>
       </c>
       <c r="G22">
-        <v>1.168605248794904</v>
+        <v>1.042377826901983</v>
       </c>
       <c r="H22">
-        <v>0.002043534089642085</v>
+        <v>0.001806989749026044</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7283602320397051</v>
+        <v>0.4041068066224511</v>
       </c>
       <c r="K22">
-        <v>0.646139375173945</v>
+        <v>0.4353689765483963</v>
       </c>
       <c r="L22">
-        <v>0.3647332324184163</v>
+        <v>0.177459856934135</v>
       </c>
       <c r="M22">
-        <v>2.022976911527195</v>
+        <v>0.1619752987962499</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3526180210977827</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.076716832565467</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.644375080350898</v>
+        <v>1.602567980358458</v>
       </c>
       <c r="C23">
-        <v>0.3646514158112382</v>
+        <v>0.4387723817491747</v>
       </c>
       <c r="D23">
-        <v>0.2615677952535975</v>
+        <v>0.3138046189961443</v>
       </c>
       <c r="E23">
-        <v>0.2745238342871446</v>
+        <v>0.2889317114744827</v>
       </c>
       <c r="F23">
-        <v>1.643940123555467</v>
+        <v>1.323631763357369</v>
       </c>
       <c r="G23">
-        <v>1.142657740972382</v>
+        <v>0.990450644848579</v>
       </c>
       <c r="H23">
-        <v>0.001426351623063038</v>
+        <v>0.001298107772777168</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7185977624225899</v>
+        <v>0.4514068526573851</v>
       </c>
       <c r="K23">
-        <v>0.6382158985932449</v>
+        <v>0.4446064645036856</v>
       </c>
       <c r="L23">
-        <v>0.3517327857683767</v>
+        <v>0.1828831404776885</v>
       </c>
       <c r="M23">
-        <v>1.947862516492989</v>
+        <v>0.1621786691827189</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3413193276513198</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.003798359077479</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.405791834888447</v>
+        <v>1.369928159886427</v>
       </c>
       <c r="C24">
-        <v>0.3115445608939069</v>
+        <v>0.3835866329795863</v>
       </c>
       <c r="D24">
-        <v>0.2243539764576639</v>
+        <v>0.2582537752923457</v>
       </c>
       <c r="E24">
-        <v>0.2359272068544485</v>
+        <v>0.2461160113815026</v>
       </c>
       <c r="F24">
-        <v>1.501049840485578</v>
+        <v>1.284906742549964</v>
       </c>
       <c r="G24">
-        <v>1.047768114963105</v>
+        <v>0.8473630027508818</v>
       </c>
       <c r="H24">
-        <v>8.282399986203615E-05</v>
+        <v>0.0001135006058057275</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6834151501991386</v>
+        <v>0.5838895223825631</v>
       </c>
       <c r="K24">
-        <v>0.6101702407683689</v>
+        <v>0.4660602125512483</v>
       </c>
       <c r="L24">
-        <v>0.3028605082321718</v>
+        <v>0.1994432257133916</v>
       </c>
       <c r="M24">
-        <v>1.664975556367295</v>
+        <v>0.1577163337983372</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2973902573813803</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.722519501458237</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.150553808014905</v>
+        <v>1.126424377180342</v>
       </c>
       <c r="C25">
-        <v>0.2548182352443291</v>
+        <v>0.3106634933285761</v>
       </c>
       <c r="D25">
-        <v>0.1845189031935348</v>
+        <v>0.2107987437373993</v>
       </c>
       <c r="E25">
-        <v>0.1947192530331421</v>
+        <v>0.2033595753085677</v>
       </c>
       <c r="F25">
-        <v>1.353693212644302</v>
+        <v>1.180379470375044</v>
       </c>
       <c r="G25">
-        <v>0.9517521398739746</v>
+        <v>0.7813621627347231</v>
       </c>
       <c r="H25">
-        <v>0.0005274795174550206</v>
+        <v>0.0003539492466966276</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6488892626744587</v>
+        <v>0.5733940362597423</v>
       </c>
       <c r="K25">
-        <v>0.5836659546696765</v>
+        <v>0.4617016167602443</v>
       </c>
       <c r="L25">
-        <v>0.2507367407987147</v>
+        <v>0.2076444539924367</v>
       </c>
       <c r="M25">
-        <v>1.362458796508577</v>
+        <v>0.1439230839477581</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2477890925790973</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.409593157354863</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
